--- a/data/trans_orig/P14B17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4507591A-D2AC-43C1-A64C-196A5E6ADE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5367670F-7A15-4DED-9569-8E99F40B527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78A163DE-E446-4556-996C-7BC261392835}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{645E25D4-B6C7-4FE6-8FA4-066876519368}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="349">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>56,97%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -118,13 +118,13 @@
     <t>34,99%</t>
   </si>
   <si>
-    <t>84,71%</t>
+    <t>83,55%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>65,06%</t>
+    <t>65,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -136,13 +136,13 @@
     <t>65,01%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>16,45%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>34,94%</t>
+    <t>34,92%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -151,37 +151,37 @@
     <t>48,02%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>51,74%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>48,26%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -193,16 +193,16 @@
     <t>24,84%</t>
   </si>
   <si>
-    <t>60,49%</t>
+    <t>67,68%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>66,84%</t>
@@ -211,16 +211,16 @@
     <t>75,16%</t>
   </si>
   <si>
-    <t>39,51%</t>
+    <t>32,32%</t>
   </si>
   <si>
     <t>73,44%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -235,7 +235,7 @@
     <t>28,41%</t>
   </si>
   <si>
-    <t>71,26%</t>
+    <t>71,45%</t>
   </si>
   <si>
     <t>60,09%</t>
@@ -247,40 +247,40 @@
     <t>71,59%</t>
   </si>
   <si>
-    <t>28,74%</t>
+    <t>28,55%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>68,26%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -292,19 +292,19 @@
     <t>62,95%</t>
   </si>
   <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -313,73 +313,73 @@
     <t>37,05%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>55,45%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -400,697 +400,691 @@
     <t>33,57%</t>
   </si>
   <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>59,32%</t>
   </si>
   <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE3EF5F-D790-4597-B1CE-DD332949A021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56CE2D-337C-486B-9CA0-8639404DE4EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3009,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B4CFD-D675-4331-81C7-ABA084376DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C6FFBD-AAF7-4179-918A-293A8843D2ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3294,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3303,7 +3297,7 @@
         <v>2213</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
@@ -3318,10 +3312,10 @@
         <v>3233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>132</v>
@@ -3342,7 +3336,7 @@
         <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
@@ -3354,7 +3348,7 @@
         <v>2093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
@@ -3369,13 +3363,13 @@
         <v>5221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,10 +3932,10 @@
         <v>5118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>29</v>
@@ -3974,7 +3968,7 @@
         <v>2191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
@@ -3989,13 +3983,13 @@
         <v>2191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,7 +4057,7 @@
         <v>1804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
@@ -4078,13 +4072,13 @@
         <v>2317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -4093,13 +4087,13 @@
         <v>4121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,7 +4108,7 @@
         <v>890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -4129,7 +4123,7 @@
         <v>18855</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>186</v>
@@ -4394,7 +4388,7 @@
         <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -4403,13 +4397,13 @@
         <v>37843</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4418,13 @@
         <v>9905</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -4439,13 +4433,13 @@
         <v>58222</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -4454,13 +4448,13 @@
         <v>68127</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ABA26B-AD63-494F-A47A-2FF5F62F3582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D79F0-22CD-49F2-8FF4-37C195A65CD2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4557,7 +4551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4670,7 +4664,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4685,7 +4679,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4700,7 +4694,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,7 +4712,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -4733,7 +4727,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -4748,7 +4742,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -4819,10 +4813,10 @@
         <v>3241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>29</v>
@@ -4834,13 +4828,13 @@
         <v>4950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4849,13 +4843,13 @@
         <v>8191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4864,13 @@
         <v>882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4885,13 +4879,13 @@
         <v>17127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4900,13 +4894,13 @@
         <v>18009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4968,13 @@
         <v>1990</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4989,13 +4983,13 @@
         <v>5128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5004,13 +4998,13 @@
         <v>7118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,10 +5019,10 @@
         <v>1869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>172</v>
@@ -5040,13 +5034,13 @@
         <v>7533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5055,13 +5049,13 @@
         <v>9402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5123,13 @@
         <v>600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5144,13 +5138,13 @@
         <v>3954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5159,13 +5153,13 @@
         <v>4554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,10 +5174,10 @@
         <v>3498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -5195,13 +5189,13 @@
         <v>14576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5210,13 +5204,13 @@
         <v>18074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5293,13 @@
         <v>2673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5314,13 +5308,13 @@
         <v>2673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5344,13 @@
         <v>5001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5365,13 +5359,13 @@
         <v>6120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5433,13 @@
         <v>5055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5454,13 +5448,13 @@
         <v>3089</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -5469,13 +5463,13 @@
         <v>8144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5484,13 @@
         <v>5217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -5505,13 +5499,13 @@
         <v>12391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -5520,13 +5514,13 @@
         <v>17608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5588,13 @@
         <v>4444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5609,13 +5603,13 @@
         <v>18128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -5624,13 +5618,13 @@
         <v>22572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5639,13 @@
         <v>6824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -5660,13 +5654,13 @@
         <v>42591</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5675,13 +5669,13 @@
         <v>49415</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,7 +5743,7 @@
         <v>1180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
@@ -5764,13 +5758,13 @@
         <v>2921</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5779,13 +5773,13 @@
         <v>4101</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5794,7 @@
         <v>1740</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -5815,13 +5809,13 @@
         <v>9974</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -5830,13 +5824,13 @@
         <v>11713</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5898,13 @@
         <v>16510</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -5919,13 +5913,13 @@
         <v>40842</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>86</v>
@@ -5934,13 +5928,13 @@
         <v>57352</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5949,13 @@
         <v>24075</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -5970,13 +5964,13 @@
         <v>122610</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M29" s="7">
         <v>225</v>
@@ -5985,13 +5979,13 @@
         <v>146685</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5367670F-7A15-4DED-9569-8E99F40B527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E81357-D1FD-4F56-8857-7E4FE3AD368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{645E25D4-B6C7-4FE6-8FA4-066876519368}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B47B338-FD4C-4DD0-8992-847116F1CDEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="355">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>56,97%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -118,13 +118,13 @@
     <t>34,99%</t>
   </si>
   <si>
-    <t>83,55%</t>
+    <t>84,7%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>65,08%</t>
+    <t>65,23%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -136,13 +136,13 @@
     <t>65,01%</t>
   </si>
   <si>
-    <t>16,45%</t>
+    <t>15,3%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>34,77%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -151,37 +151,37 @@
     <t>48,02%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>51,74%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>48,26%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -193,892 +193,910 @@
     <t>24,84%</t>
   </si>
   <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2016 (Tasa respuesta: 1,52%)</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>71,89%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2015 (Tasa respuesta: 1,52%)</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
   </si>
   <si>
     <t>66,01%</t>
@@ -1496,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56CE2D-337C-486B-9CA0-8639404DE4EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105CEFAC-2EF9-4966-9BC8-C51E65756D25}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3003,7 +3021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C6FFBD-AAF7-4179-918A-293A8843D2ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BF3D8E-A022-4FC2-9887-4515898C5481}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3315,10 +3333,10 @@
         <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,10 +3351,10 @@
         <v>3127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
@@ -3348,7 +3366,7 @@
         <v>2093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
@@ -3363,13 +3381,13 @@
         <v>5221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,7 +3461,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3452,13 +3470,13 @@
         <v>2980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3467,13 +3485,13 @@
         <v>2980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3509,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -3503,13 +3521,13 @@
         <v>3696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3518,13 +3536,13 @@
         <v>4478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3771,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3801,7 +3819,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
@@ -4072,13 +4090,13 @@
         <v>2317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -4087,13 +4105,13 @@
         <v>4121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,7 +4126,7 @@
         <v>890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -4123,10 +4141,10 @@
         <v>18855</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>29</v>
@@ -4138,13 +4156,13 @@
         <v>19745</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4236,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -4227,13 +4245,13 @@
         <v>11320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4242,13 +4260,13 @@
         <v>11320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4284,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>20</v>
@@ -4278,13 +4296,13 @@
         <v>9928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -4293,13 +4311,13 @@
         <v>10950</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4385,13 @@
         <v>9191</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -4382,13 +4400,13 @@
         <v>28652</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -4397,13 +4415,13 @@
         <v>37843</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4436,13 @@
         <v>9905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -4433,13 +4451,13 @@
         <v>58222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -4448,13 +4466,13 @@
         <v>68127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D79F0-22CD-49F2-8FF4-37C195A65CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F047FD-36CA-4A87-9C73-132DF36CA0F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4664,7 +4682,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4679,7 +4697,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4694,7 +4712,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4730,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -4727,7 +4745,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -4742,7 +4760,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -4813,7 +4831,7 @@
         <v>3241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -4828,13 +4846,13 @@
         <v>4950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4843,13 +4861,13 @@
         <v>8191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,7 +4882,7 @@
         <v>882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
@@ -4879,13 +4897,13 @@
         <v>17127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4894,13 +4912,13 @@
         <v>18009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4986,13 @@
         <v>1990</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4983,13 +5001,13 @@
         <v>5128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4998,13 +5016,13 @@
         <v>7118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,10 +5037,10 @@
         <v>1869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>172</v>
@@ -5034,13 +5052,13 @@
         <v>7533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5049,13 +5067,13 @@
         <v>9402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5141,13 @@
         <v>600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5138,13 +5156,13 @@
         <v>3954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5153,13 +5171,13 @@
         <v>4554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,10 +5192,10 @@
         <v>3498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -5189,13 +5207,13 @@
         <v>14576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5204,13 +5222,13 @@
         <v>18074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5311,13 @@
         <v>2673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5308,13 +5326,13 @@
         <v>2673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5362,13 @@
         <v>5001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5359,13 +5377,13 @@
         <v>6120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5451,13 @@
         <v>5055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5448,13 +5466,13 @@
         <v>3089</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -5463,13 +5481,13 @@
         <v>8144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5502,13 @@
         <v>5217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -5499,13 +5517,13 @@
         <v>12391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -5514,13 +5532,13 @@
         <v>17608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5606,13 @@
         <v>4444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5603,13 +5621,13 @@
         <v>18128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -5618,13 +5636,13 @@
         <v>22572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5657,13 @@
         <v>6824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -5654,13 +5672,13 @@
         <v>42591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5669,13 +5687,13 @@
         <v>49415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,7 +5761,7 @@
         <v>1180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
@@ -5758,13 +5776,13 @@
         <v>2921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5773,13 +5791,13 @@
         <v>4101</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,7 +5812,7 @@
         <v>1740</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -5809,13 +5827,13 @@
         <v>9974</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -5824,13 +5842,13 @@
         <v>11713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5916,13 @@
         <v>16510</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -5913,13 +5931,13 @@
         <v>40842</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M28" s="7">
         <v>86</v>
@@ -5928,13 +5946,13 @@
         <v>57352</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5967,13 @@
         <v>24075</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -5964,13 +5982,13 @@
         <v>122610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M29" s="7">
         <v>225</v>
@@ -5979,13 +5997,13 @@
         <v>146685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
